--- a/data/lookups_template.xlsx
+++ b/data/lookups_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atana/Dev/electron/mil-tracker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0049A9A2-2206-D145-8617-724A6BAFD946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,12 @@
     <sheet name="Units" sheetId="6" r:id="rId6"/>
     <sheet name="README" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -236,13 +230,22 @@
   </si>
   <si>
     <t>ΤΣ</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>C:\Users\group8\Documents\DEV\mil-racker-assets\images\flags</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,20 +601,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -630,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -646,7 +649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -660,14 +663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -695,7 +704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -704,6 +713,20 @@
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +735,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -744,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -761,14 +784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -802,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -825,14 +848,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -860,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -880,20 +903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -942,7 +965,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -968,18 +991,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="215" zoomScaleNormal="215" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -987,7 +1010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -995,7 +1018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1003,7 +1026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1011,7 +1034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1019,7 +1042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1027,7 +1050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1035,7 +1058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1043,7 +1066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1051,7 +1074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1059,7 +1082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
